--- a/reporte_cursos.xlsx
+++ b/reporte_cursos.xlsx
@@ -14,7 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+  <si>
+    <t>id_curso</t>
+  </si>
+  <si>
+    <t>fecha_realizacion</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>porcentaje</t>
+  </si>
   <si>
     <t>nombre</t>
   </si>
@@ -22,13 +34,7 @@
     <t>frecuencia</t>
   </si>
   <si>
-    <t>modalidad</t>
-  </si>
-  <si>
-    <t>fecha_realizacion</t>
-  </si>
-  <si>
-    <t>estado</t>
+    <t>modulo</t>
   </si>
   <si>
     <t>fecha_vencimiento</t>
@@ -40,22 +46,46 @@
     <t>estado_actualizado</t>
   </si>
   <si>
+    <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2024-08-08</t>
+  </si>
+  <si>
+    <t>2024-08-31</t>
+  </si>
+  <si>
+    <t>aprobado</t>
+  </si>
+  <si>
     <t xml:space="preserve">2. Gestión de químicos	</t>
   </si>
   <si>
-    <t xml:space="preserve">23. Racks y estantes para almacenamiento seguro	</t>
+    <t xml:space="preserve">4. Espacios confinados	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Patógenos sanguíneos </t>
+  </si>
+  <si>
+    <t>3. Gases comprimidos</t>
   </si>
   <si>
     <t>anual</t>
   </si>
   <si>
+    <t>unico</t>
+  </si>
+  <si>
     <t>pendiente</t>
   </si>
   <si>
-    <t>2000-01-01</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
+    <t>No vence</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -417,13 +447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,57 +478,139 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2">
+        <v>46235</v>
+      </c>
+      <c r="I2">
+        <v>357</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2">
+        <v>46242</v>
+      </c>
+      <c r="I3">
+        <v>364</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2">
-        <v>36891</v>
-      </c>
-      <c r="G2">
-        <v>-8983</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2">
-        <v>36891</v>
-      </c>
-      <c r="G3">
-        <v>-8983</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
